--- a/StructureDefinition-Encounter-HPA.xlsx
+++ b/StructureDefinition-Encounter-HPA.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/StructureDefinition/Encounter-HPA</t>
+    <t>https://twhpa.tsti.com/StructureDefinition/Encounter-HPA</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -1193,7 +1193,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Patient-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Patient-HPA)
 </t>
   </si>
   <si>
@@ -1326,7 +1326,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Practitioner-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Practitioner-HPA)
 </t>
   </si>
   <si>
@@ -1829,7 +1829,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Organization-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Organization-HPA)
 </t>
   </si>
   <si>
